--- a/solution.xlsx
+++ b/solution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpo\Desktop\GAMS\Bahia_Covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72025685-09E5-4708-8C10-21D87C5191F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7DE5B6-9422-4365-B065-560015C71C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{A9018DA2-444E-47A9-8B31-6A717B86AD9D}"/>
   </bookViews>
@@ -35,38 +35,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="41">
-  <si>
-    <t>r-santo-antonio-de-jesus</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="134">
   <si>
     <t>r-jeremoabo</t>
   </si>
   <si>
-    <t>r-ribeira-do-pombal</t>
-  </si>
-  <si>
     <t>r-entre-rios</t>
   </si>
   <si>
-    <t>r-valenca</t>
-  </si>
-  <si>
-    <t>r-barreiras</t>
-  </si>
-  <si>
-    <t>r-juazeiro</t>
-  </si>
-  <si>
     <t>r-itaberaba</t>
   </si>
   <si>
     <t>r-boquira</t>
   </si>
   <si>
-    <t>r-seabra</t>
-  </si>
-  <si>
     <t>metropolitana-salvador</t>
   </si>
   <si>
@@ -97,39 +79,15 @@
     <t>jandaira</t>
   </si>
   <si>
-    <t>igrapiuna</t>
-  </si>
-  <si>
-    <t>marau</t>
-  </si>
-  <si>
-    <t>taperoa</t>
-  </si>
-  <si>
     <t>teolandia</t>
   </si>
   <si>
-    <t>jucurucu</t>
-  </si>
-  <si>
     <t>cotegipe</t>
   </si>
   <si>
     <t>buritirama</t>
   </si>
   <si>
-    <t>feira-da-mata</t>
-  </si>
-  <si>
-    <t>campo-alegre-de-lourdes</t>
-  </si>
-  <si>
-    <t>pilao-arcado</t>
-  </si>
-  <si>
-    <t>caem</t>
-  </si>
-  <si>
     <t>boa-vista-do-tupim</t>
   </si>
   <si>
@@ -145,12 +103,6 @@
     <t>oliveira-dos-brejinhos</t>
   </si>
   <si>
-    <t>presidente-janio-quadros</t>
-  </si>
-  <si>
-    <t>marcionilio-souza</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -158,6 +110,333 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>r-catu</t>
+  </si>
+  <si>
+    <t>r-euclides-da-cunha</t>
+  </si>
+  <si>
+    <t>r-ilheus-itabuna</t>
+  </si>
+  <si>
+    <t>r-cotegipe</t>
+  </si>
+  <si>
+    <t>r-barra</t>
+  </si>
+  <si>
+    <t>r-senhor-do-bonfim</t>
+  </si>
+  <si>
+    <t>itanagra</t>
+  </si>
+  <si>
+    <t>mata-de-sao-joao</t>
+  </si>
+  <si>
+    <t>catu</t>
+  </si>
+  <si>
+    <t>pojuca</t>
+  </si>
+  <si>
+    <t>sao-sebastiao-do-passe</t>
+  </si>
+  <si>
+    <t>terra-nova</t>
+  </si>
+  <si>
+    <t>amelia-rodrigues</t>
+  </si>
+  <si>
+    <t>cansancao</t>
+  </si>
+  <si>
+    <t>canudos</t>
+  </si>
+  <si>
+    <t>euclides-da-cunha</t>
+  </si>
+  <si>
+    <t>monte-santo</t>
+  </si>
+  <si>
+    <t>nordestina</t>
+  </si>
+  <si>
+    <t>queimadas</t>
+  </si>
+  <si>
+    <t>quijingue</t>
+  </si>
+  <si>
+    <t>tucano</t>
+  </si>
+  <si>
+    <t>uaua</t>
+  </si>
+  <si>
+    <t>jeremoabo</t>
+  </si>
+  <si>
+    <t>coronel-joao-sa</t>
+  </si>
+  <si>
+    <t>santa-brigida</t>
+  </si>
+  <si>
+    <t>sitio-do-quinto</t>
+  </si>
+  <si>
+    <t>conde</t>
+  </si>
+  <si>
+    <t>entre-rios</t>
+  </si>
+  <si>
+    <t>esplanada</t>
+  </si>
+  <si>
+    <t>almadina</t>
+  </si>
+  <si>
+    <t>arataca</t>
+  </si>
+  <si>
+    <t>aurelino-leal</t>
+  </si>
+  <si>
+    <t>barra-do-rocha</t>
+  </si>
+  <si>
+    <t>barro-preto</t>
+  </si>
+  <si>
+    <t>belmonte</t>
+  </si>
+  <si>
+    <t>buerarema</t>
+  </si>
+  <si>
+    <t>camacan</t>
+  </si>
+  <si>
+    <t>canavieiras</t>
+  </si>
+  <si>
+    <t>coaraci</t>
+  </si>
+  <si>
+    <t>firmino-alves</t>
+  </si>
+  <si>
+    <t>floresta-azul</t>
+  </si>
+  <si>
+    <t>gandu</t>
+  </si>
+  <si>
+    <t>gongogi</t>
+  </si>
+  <si>
+    <t>ibicarai</t>
+  </si>
+  <si>
+    <t>ibirapitanga</t>
+  </si>
+  <si>
+    <t>ibirataia</t>
+  </si>
+  <si>
+    <t>ilheus</t>
+  </si>
+  <si>
+    <t>itabuna</t>
+  </si>
+  <si>
+    <t>itacare</t>
+  </si>
+  <si>
+    <t>itagiba</t>
+  </si>
+  <si>
+    <t>itaju-do-colonia</t>
+  </si>
+  <si>
+    <t>itajuipe</t>
+  </si>
+  <si>
+    <t>itamari</t>
+  </si>
+  <si>
+    <t>itape</t>
+  </si>
+  <si>
+    <t>itapebi</t>
+  </si>
+  <si>
+    <t>itapitanga</t>
+  </si>
+  <si>
+    <t>jussari</t>
+  </si>
+  <si>
+    <t>mascote</t>
+  </si>
+  <si>
+    <t>nova-ibia</t>
+  </si>
+  <si>
+    <t>pau-brasil</t>
+  </si>
+  <si>
+    <t>santa-cruz-da-vitoria</t>
+  </si>
+  <si>
+    <t>santa-luzia</t>
+  </si>
+  <si>
+    <t>sao-jose-da-vitoria</t>
+  </si>
+  <si>
+    <t>ubaitaba</t>
+  </si>
+  <si>
+    <t>ubata</t>
+  </si>
+  <si>
+    <t>una</t>
+  </si>
+  <si>
+    <t>urucuca</t>
+  </si>
+  <si>
+    <t>wenceslau-guimaraes</t>
+  </si>
+  <si>
+    <t>angical</t>
+  </si>
+  <si>
+    <t>brejolandia</t>
+  </si>
+  <si>
+    <t>cristopolis</t>
+  </si>
+  <si>
+    <t>mansidao</t>
+  </si>
+  <si>
+    <t>santa-rita-de-cassia</t>
+  </si>
+  <si>
+    <t>tabocas-do-brejo-velho</t>
+  </si>
+  <si>
+    <t>wanderley</t>
+  </si>
+  <si>
+    <t>barra</t>
+  </si>
+  <si>
+    <t>ibotirama</t>
+  </si>
+  <si>
+    <t>itaguacu-da-bahia</t>
+  </si>
+  <si>
+    <t>morpara</t>
+  </si>
+  <si>
+    <t>muquem-de-sao-francisco</t>
+  </si>
+  <si>
+    <t>xique-xique</t>
+  </si>
+  <si>
+    <t>andorinha</t>
+  </si>
+  <si>
+    <t>antonio-goncalves</t>
+  </si>
+  <si>
+    <t>campo-formoso</t>
+  </si>
+  <si>
+    <t>filadelfia</t>
+  </si>
+  <si>
+    <t>itiuba</t>
+  </si>
+  <si>
+    <t>jaguarari</t>
+  </si>
+  <si>
+    <t>pindobacu</t>
+  </si>
+  <si>
+    <t>senhor-do-bonfim</t>
+  </si>
+  <si>
+    <t>umburanas</t>
+  </si>
+  <si>
+    <t>baixa-grande</t>
+  </si>
+  <si>
+    <t>iacu</t>
+  </si>
+  <si>
+    <t>itaberaba</t>
+  </si>
+  <si>
+    <t>macajuba</t>
+  </si>
+  <si>
+    <t>mairi</t>
+  </si>
+  <si>
+    <t>ruy-barbosa</t>
+  </si>
+  <si>
+    <t>tapiramuta</t>
+  </si>
+  <si>
+    <t>varzea-da-roca</t>
+  </si>
+  <si>
+    <t>ipiau</t>
+  </si>
+  <si>
+    <t>boquira</t>
+  </si>
+  <si>
+    <t>botupora</t>
+  </si>
+  <si>
+    <t>brotas-de-macaubas</t>
+  </si>
+  <si>
+    <t>caturama</t>
+  </si>
+  <si>
+    <t>ibipitanga</t>
+  </si>
+  <si>
+    <t>ibitiara</t>
+  </si>
+  <si>
+    <t>ipupiara</t>
+  </si>
+  <si>
+    <t>macaubas</t>
+  </si>
+  <si>
+    <t>novo-horizonte</t>
+  </si>
+  <si>
+    <t>tanque-novo</t>
   </si>
 </sst>
 </file>
@@ -518,34 +797,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -595,66 +874,66 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>313256</v>
+        <v>229682</v>
       </c>
       <c r="B2">
-        <v>83889</v>
+        <v>302581</v>
       </c>
       <c r="C2">
-        <v>166938</v>
+        <v>97224</v>
       </c>
       <c r="D2">
-        <v>62429</v>
+        <v>124858</v>
       </c>
       <c r="E2">
-        <v>313256</v>
+        <v>1002092</v>
       </c>
       <c r="F2">
-        <v>325917.89999999991</v>
+        <v>118963</v>
       </c>
       <c r="G2">
-        <v>327038</v>
+        <v>182458</v>
       </c>
       <c r="H2">
-        <v>327038</v>
+        <v>302022</v>
       </c>
       <c r="I2">
-        <v>182843.5</v>
+        <v>423690.20000000019</v>
       </c>
       <c r="J2">
-        <v>130412.5</v>
+        <v>193787</v>
       </c>
     </row>
   </sheetData>
@@ -672,48 +951,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>313256</v>
+        <v>229682</v>
       </c>
       <c r="B2">
-        <v>313256</v>
+        <v>524663</v>
       </c>
       <c r="C2">
-        <v>313256</v>
+        <v>1002092</v>
       </c>
       <c r="D2">
-        <v>325917.89999999991</v>
+        <v>118963</v>
       </c>
       <c r="E2">
-        <v>327038</v>
+        <v>182458</v>
       </c>
       <c r="F2">
-        <v>327038</v>
+        <v>725712.20000000019</v>
       </c>
       <c r="G2">
-        <v>313256</v>
+        <v>193787</v>
       </c>
     </row>
   </sheetData>
@@ -731,1176 +1010,1296 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>16667</v>
+        <v>6441</v>
       </c>
       <c r="D2">
-        <v>16667</v>
+        <v>6441</v>
       </c>
       <c r="E2">
-        <v>16667</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>46583</v>
       </c>
       <c r="D3">
-        <v>16667</v>
+        <v>46583</v>
       </c>
       <c r="E3">
-        <v>16667</v>
+        <v>46583</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>16667</v>
+        <v>54704</v>
+      </c>
+      <c r="D4">
+        <v>54704</v>
+      </c>
+      <c r="E4">
+        <v>54704</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>16667</v>
+        <v>39519</v>
       </c>
       <c r="D5">
-        <v>16667</v>
+        <v>39519</v>
       </c>
       <c r="E5">
-        <v>16667</v>
+        <v>39519</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>16667</v>
+        <v>44300</v>
       </c>
       <c r="D6">
-        <v>16667</v>
+        <v>44300</v>
       </c>
       <c r="E6">
-        <v>16667</v>
+        <v>44300</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>16667</v>
+        <v>13033</v>
       </c>
       <c r="D7">
-        <v>16667</v>
+        <v>13033</v>
       </c>
       <c r="E7">
-        <v>16667</v>
+        <v>13033</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C8">
-        <v>16667</v>
+        <v>25102</v>
       </c>
       <c r="D8">
-        <v>16667</v>
+        <v>25102</v>
       </c>
       <c r="E8">
-        <v>16667</v>
+        <v>25102</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C9">
-        <v>16667</v>
+        <v>34834</v>
       </c>
       <c r="D9">
-        <v>16667</v>
+        <v>34834</v>
       </c>
       <c r="E9">
-        <v>16667</v>
+        <v>34834</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>9295</v>
+        <v>16668</v>
       </c>
       <c r="D10">
-        <v>9295</v>
+        <v>16668</v>
       </c>
       <c r="E10">
-        <v>9295</v>
+        <v>16668</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>9295</v>
+        <v>60585</v>
+      </c>
+      <c r="D11">
+        <v>60585</v>
       </c>
       <c r="E11">
-        <v>9295</v>
+        <v>60585</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>49418</v>
       </c>
       <c r="D12">
-        <v>9295</v>
+        <v>49418</v>
+      </c>
+      <c r="E12">
+        <v>49418</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>9295</v>
+        <v>13130</v>
       </c>
       <c r="D13">
-        <v>9295</v>
+        <v>13130</v>
       </c>
       <c r="E13">
-        <v>9295</v>
+        <v>13130</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>9295</v>
+        <v>25439</v>
       </c>
       <c r="D14">
-        <v>9295</v>
+        <v>25439</v>
       </c>
       <c r="E14">
-        <v>9295</v>
+        <v>25439</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>9295</v>
+        <v>27580</v>
       </c>
       <c r="D15">
-        <v>9295</v>
+        <v>27580</v>
       </c>
       <c r="E15">
-        <v>9295</v>
+        <v>27580</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>9295</v>
+        <v>50687</v>
       </c>
       <c r="D16">
-        <v>9295</v>
+        <v>50687</v>
       </c>
       <c r="E16">
-        <v>9295</v>
+        <v>50687</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C17">
-        <v>9295</v>
+        <v>24240</v>
       </c>
       <c r="D17">
-        <v>9295</v>
+        <v>24240</v>
       </c>
       <c r="E17">
-        <v>9295</v>
+        <v>24240</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10709</v>
+        <v>40463</v>
       </c>
       <c r="D18">
-        <v>10709</v>
+        <v>40463</v>
       </c>
       <c r="E18">
-        <v>10709</v>
+        <v>40463</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>10709</v>
+        <v>15895</v>
       </c>
       <c r="D19">
-        <v>10709</v>
+        <v>15895</v>
+      </c>
+      <c r="E19">
+        <v>15895</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>16667</v>
+      </c>
+      <c r="D20">
+        <v>16667</v>
       </c>
       <c r="E20">
-        <v>10709</v>
+        <v>16667</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>10709</v>
+        <v>14213</v>
       </c>
       <c r="D21">
-        <v>10709</v>
+        <v>14213</v>
       </c>
       <c r="E21">
-        <v>10709</v>
+        <v>14213</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>10709</v>
+        <v>9986</v>
       </c>
       <c r="D22">
-        <v>10709</v>
+        <v>9986</v>
       </c>
       <c r="E22">
-        <v>10709</v>
+        <v>9986</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>10709</v>
+        <v>9295</v>
       </c>
       <c r="D23">
-        <v>10709</v>
+        <v>9295</v>
       </c>
       <c r="E23">
-        <v>10709</v>
+        <v>9295</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C24">
-        <v>10709</v>
+        <v>25837</v>
       </c>
       <c r="D24">
-        <v>10709</v>
+        <v>25837</v>
       </c>
       <c r="E24">
-        <v>10709</v>
+        <v>25837</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C25">
-        <v>10709</v>
+        <v>41780</v>
       </c>
       <c r="D25">
-        <v>10709</v>
+        <v>41780</v>
       </c>
       <c r="E25">
-        <v>10709</v>
+        <v>41780</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>13226</v>
+        <v>37237</v>
       </c>
       <c r="D26">
-        <v>13226</v>
+        <v>37237</v>
       </c>
       <c r="E26">
-        <v>13226</v>
+        <v>37237</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>13226</v>
+        <v>10709</v>
       </c>
       <c r="D27">
-        <v>13226</v>
+        <v>10709</v>
       </c>
       <c r="E27">
-        <v>13226</v>
+        <v>10709</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C28">
-        <v>13226</v>
+        <v>5464</v>
       </c>
       <c r="D28">
-        <v>13226</v>
+        <v>5464</v>
       </c>
       <c r="E28">
-        <v>13226</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C29">
-        <v>13226</v>
+        <v>11019</v>
       </c>
       <c r="D29">
-        <v>13226</v>
+        <v>11019</v>
       </c>
       <c r="E29">
-        <v>13226</v>
+        <v>11019</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C30">
-        <v>13226</v>
+        <v>11531</v>
       </c>
       <c r="D30">
-        <v>13226</v>
+        <v>11531</v>
       </c>
       <c r="E30">
-        <v>13226</v>
+        <v>11531</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <v>13226</v>
+        <v>5714</v>
       </c>
       <c r="D31">
-        <v>13226</v>
+        <v>5714</v>
       </c>
       <c r="E31">
-        <v>13226</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C32">
-        <v>13226</v>
+        <v>5591</v>
+      </c>
+      <c r="D32">
+        <v>5591</v>
+      </c>
+      <c r="E32">
+        <v>5591</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>23328</v>
       </c>
       <c r="D33">
-        <v>13226</v>
+        <v>23328</v>
       </c>
       <c r="E33">
-        <v>13226</v>
+        <v>23328</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C34">
-        <v>20570</v>
+        <v>18349</v>
       </c>
       <c r="D34">
-        <v>20570</v>
+        <v>18349</v>
       </c>
       <c r="E34">
-        <v>20570</v>
+        <v>18349</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="C35">
-        <v>20570</v>
+        <v>31988</v>
+      </c>
+      <c r="D35">
+        <v>31988</v>
       </c>
       <c r="E35">
-        <v>20570</v>
+        <v>31988</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>31099</v>
       </c>
       <c r="D36">
-        <v>20570</v>
+        <v>31099</v>
+      </c>
+      <c r="E36">
+        <v>31099</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C37">
-        <v>20570</v>
+        <v>16993</v>
       </c>
       <c r="D37">
-        <v>20570</v>
+        <v>16993</v>
       </c>
       <c r="E37">
-        <v>20570</v>
+        <v>16993</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C38">
-        <v>20570</v>
+        <v>5617</v>
       </c>
       <c r="D38">
-        <v>20570</v>
+        <v>5617</v>
       </c>
       <c r="E38">
-        <v>20570</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C39">
-        <v>20570</v>
+        <v>10629</v>
       </c>
       <c r="D39">
-        <v>20570</v>
+        <v>10629</v>
       </c>
       <c r="E39">
-        <v>20570</v>
+        <v>10629</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C40">
-        <v>20570</v>
+        <v>32403</v>
       </c>
       <c r="D40">
-        <v>20570</v>
+        <v>32403</v>
       </c>
       <c r="E40">
-        <v>20570</v>
+        <v>32403</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C41">
-        <v>20570</v>
+        <v>7128</v>
+      </c>
+      <c r="D41">
+        <v>7128</v>
       </c>
       <c r="E41">
-        <v>20570</v>
+        <v>7128</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="C42">
+        <v>21689</v>
       </c>
       <c r="D42">
-        <v>20570</v>
+        <v>21689</v>
+      </c>
+      <c r="E42">
+        <v>21689</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C43">
-        <v>21074</v>
+        <v>23375</v>
       </c>
       <c r="D43">
-        <v>21074</v>
+        <v>23375</v>
       </c>
       <c r="E43">
-        <v>21074</v>
+        <v>23375</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C44">
+        <v>15312</v>
+      </c>
+      <c r="D44">
+        <v>15312</v>
       </c>
       <c r="E44">
-        <v>21074</v>
+        <v>15312</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C45">
-        <v>21074</v>
+        <v>162327</v>
       </c>
       <c r="D45">
-        <v>21074</v>
+        <v>162327</v>
+      </c>
+      <c r="E45">
+        <v>162327</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C46">
-        <v>21074</v>
+        <v>213223</v>
       </c>
       <c r="D46">
-        <v>21074</v>
+        <v>213223</v>
       </c>
       <c r="E46">
-        <v>21074</v>
+        <v>213223</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C47">
-        <v>21074</v>
+        <v>28296</v>
       </c>
       <c r="D47">
-        <v>21074</v>
+        <v>28296</v>
       </c>
       <c r="E47">
-        <v>21074</v>
+        <v>28296</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C48">
-        <v>21074</v>
+        <v>14579</v>
       </c>
       <c r="D48">
-        <v>21074</v>
+        <v>14579</v>
       </c>
       <c r="E48">
-        <v>21074</v>
+        <v>14579</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C49">
-        <v>21074</v>
+        <v>6682</v>
       </c>
       <c r="D49">
-        <v>21074</v>
+        <v>6682</v>
       </c>
       <c r="E49">
-        <v>21074</v>
+        <v>6682</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>20491</v>
       </c>
       <c r="D50">
-        <v>21074</v>
+        <v>20491</v>
+      </c>
+      <c r="E50">
+        <v>20491</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C51">
-        <v>21074</v>
+        <v>8035</v>
+      </c>
+      <c r="D51">
+        <v>8035</v>
       </c>
       <c r="E51">
-        <v>21074</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C52">
-        <v>14943</v>
+        <v>8761</v>
       </c>
       <c r="D52">
-        <v>14943</v>
+        <v>8761</v>
       </c>
       <c r="E52">
-        <v>14943</v>
+        <v>8761</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C53">
-        <v>14943</v>
+        <v>10259</v>
+      </c>
+      <c r="D53">
+        <v>10259</v>
+      </c>
+      <c r="E53">
+        <v>10259</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>10313</v>
       </c>
       <c r="D54">
-        <v>14943</v>
+        <v>10313</v>
       </c>
       <c r="E54">
-        <v>14943</v>
+        <v>10313</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C55">
-        <v>14943</v>
+        <v>5833</v>
       </c>
       <c r="D55">
-        <v>14943</v>
+        <v>5833</v>
       </c>
       <c r="E55">
-        <v>14943</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C56">
-        <v>14943</v>
+        <v>13822</v>
       </c>
       <c r="D56">
-        <v>14943</v>
+        <v>13822</v>
       </c>
       <c r="E56">
-        <v>14943</v>
+        <v>13822</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C57">
-        <v>14943</v>
+        <v>6591</v>
       </c>
       <c r="D57">
-        <v>14943</v>
+        <v>6591</v>
       </c>
       <c r="E57">
-        <v>14943</v>
+        <v>6591</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C58">
-        <v>14943</v>
+        <v>9831</v>
       </c>
       <c r="D58">
-        <v>14943</v>
+        <v>9831</v>
       </c>
       <c r="E58">
-        <v>14943</v>
+        <v>9831</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C59">
-        <v>14943</v>
+        <v>6315</v>
       </c>
       <c r="D59">
-        <v>14943</v>
+        <v>6315</v>
+      </c>
+      <c r="E59">
+        <v>6315</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>12597</v>
+      </c>
+      <c r="D60">
+        <v>12597</v>
       </c>
       <c r="E60">
-        <v>14943</v>
+        <v>12597</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C61">
-        <v>9126</v>
+        <v>5657</v>
       </c>
       <c r="D61">
-        <v>9126</v>
+        <v>5657</v>
       </c>
       <c r="E61">
-        <v>9126</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C62">
-        <v>9126</v>
+        <v>14943</v>
       </c>
       <c r="D62">
-        <v>9126</v>
+        <v>14943</v>
+      </c>
+      <c r="E62">
+        <v>14943</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="C63">
+        <v>19056</v>
+      </c>
+      <c r="D63">
+        <v>19056</v>
       </c>
       <c r="E63">
-        <v>9126</v>
+        <v>19056</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C64">
-        <v>9126</v>
+        <v>27035</v>
       </c>
       <c r="D64">
-        <v>9126</v>
+        <v>27035</v>
       </c>
       <c r="E64">
-        <v>9126</v>
+        <v>27035</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C65">
-        <v>9126</v>
+        <v>19002</v>
       </c>
       <c r="D65">
-        <v>9126</v>
+        <v>19002</v>
       </c>
       <c r="E65">
-        <v>9126</v>
+        <v>19002</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C66">
-        <v>9126</v>
+        <v>20519</v>
       </c>
       <c r="D66">
-        <v>9126</v>
+        <v>20519</v>
       </c>
       <c r="E66">
-        <v>9126</v>
+        <v>20519</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C67">
-        <v>9126</v>
+        <v>21101</v>
       </c>
       <c r="D67">
-        <v>9126</v>
+        <v>21101</v>
       </c>
       <c r="E67">
-        <v>9126</v>
+        <v>21101</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C68">
-        <v>3383.5</v>
+        <v>13977</v>
       </c>
       <c r="D68">
-        <v>9126</v>
+        <v>13977</v>
+      </c>
+      <c r="E68">
+        <v>13977</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C69">
-        <v>5742.5</v>
+        <v>10557</v>
+      </c>
+      <c r="D69">
+        <v>10557</v>
       </c>
       <c r="E69">
-        <v>9126</v>
+        <v>10557</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C70">
-        <v>12661.899999999907</v>
+        <v>13782</v>
       </c>
       <c r="D70">
-        <v>12661.899999999907</v>
+        <v>13782</v>
       </c>
       <c r="E70">
-        <v>12661.899999999907</v>
+        <v>13782</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C71">
-        <v>13782</v>
+        <v>13910</v>
       </c>
       <c r="D71">
-        <v>13782</v>
+        <v>13910</v>
       </c>
       <c r="E71">
-        <v>13782</v>
+        <v>13910</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C72">
-        <v>13782</v>
+        <v>13643</v>
       </c>
       <c r="D72">
-        <v>13782</v>
+        <v>13643</v>
       </c>
       <c r="E72">
-        <v>13782</v>
+        <v>13643</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="C73">
-        <v>21174</v>
+        <v>28338</v>
       </c>
       <c r="D73">
-        <v>21174</v>
+        <v>28338</v>
       </c>
       <c r="E73">
-        <v>21174</v>
+        <v>28338</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C74">
-        <v>21174</v>
+        <v>12518</v>
+      </c>
+      <c r="D74">
+        <v>12518</v>
       </c>
       <c r="E74">
-        <v>21174</v>
+        <v>12518</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="C75">
+        <v>12238</v>
       </c>
       <c r="D75">
-        <v>20008</v>
+        <v>12238</v>
+      </c>
+      <c r="E75">
+        <v>12238</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
+      </c>
+      <c r="C76">
+        <v>53578</v>
       </c>
       <c r="D76">
-        <v>1166</v>
+        <v>53578</v>
+      </c>
+      <c r="E76">
+        <v>53578</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C77">
         <v>21174</v>
@@ -1914,1569 +2313,905 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C78">
-        <v>21174</v>
+        <v>26927</v>
       </c>
       <c r="D78">
-        <v>21174</v>
+        <v>26927</v>
       </c>
       <c r="E78">
-        <v>21174</v>
+        <v>26927</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C79">
-        <v>21174</v>
+        <v>14429</v>
       </c>
       <c r="D79">
-        <v>21174</v>
+        <v>14429</v>
       </c>
       <c r="E79">
-        <v>21174</v>
+        <v>14429</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C80">
-        <v>21174</v>
+        <v>8519</v>
       </c>
       <c r="D80">
-        <v>21174</v>
+        <v>8519</v>
       </c>
       <c r="E80">
-        <v>21174</v>
+        <v>8519</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="C81">
+        <v>11348</v>
       </c>
       <c r="D81">
-        <v>21174</v>
+        <v>11348</v>
+      </c>
+      <c r="E81">
+        <v>11348</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C82">
-        <v>21174</v>
+        <v>46483</v>
+      </c>
+      <c r="D82">
+        <v>46483</v>
       </c>
       <c r="E82">
-        <v>21174</v>
+        <v>46483</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C83">
-        <v>5665</v>
+        <v>14595</v>
       </c>
       <c r="D83">
-        <v>5665</v>
+        <v>14595</v>
       </c>
       <c r="E83">
-        <v>5665</v>
+        <v>14595</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C84">
-        <v>5665</v>
+        <v>11798</v>
       </c>
       <c r="D84">
-        <v>5665</v>
+        <v>11798</v>
+      </c>
+      <c r="E84">
+        <v>11798</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
+      </c>
+      <c r="C85">
+        <v>71206</v>
+      </c>
+      <c r="D85">
+        <v>71206</v>
       </c>
       <c r="E85">
-        <v>5665</v>
+        <v>71206</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C86">
-        <v>5665</v>
+        <v>16377</v>
       </c>
       <c r="D86">
-        <v>5665</v>
+        <v>16377</v>
       </c>
       <c r="E86">
-        <v>5665</v>
+        <v>16377</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C87">
-        <v>5665</v>
+        <v>36089</v>
       </c>
       <c r="D87">
-        <v>5665</v>
+        <v>36089</v>
       </c>
       <c r="E87">
-        <v>5665</v>
+        <v>36089</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C88">
-        <v>5665</v>
+        <v>33570</v>
       </c>
       <c r="D88">
-        <v>5665</v>
+        <v>33570</v>
       </c>
       <c r="E88">
-        <v>5665</v>
+        <v>33570</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C89">
-        <v>5665</v>
+        <v>20150</v>
       </c>
       <c r="D89">
-        <v>5665</v>
+        <v>20150</v>
       </c>
       <c r="E89">
-        <v>5665</v>
+        <v>20150</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C90">
-        <v>5665</v>
+        <v>79015</v>
       </c>
       <c r="D90">
-        <v>5665</v>
+        <v>79015</v>
       </c>
       <c r="E90">
-        <v>5665</v>
+        <v>79015</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C91">
-        <v>28798</v>
+        <v>19222</v>
       </c>
       <c r="D91">
-        <v>28798</v>
+        <v>19222</v>
       </c>
       <c r="E91">
-        <v>28798</v>
+        <v>19222</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>20468</v>
       </c>
       <c r="D92">
-        <v>18982</v>
+        <v>20468</v>
+      </c>
+      <c r="E92">
+        <v>20468</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C93">
-        <v>28798</v>
+        <v>18576</v>
       </c>
       <c r="D93">
-        <v>9816</v>
+        <v>18576</v>
+      </c>
+      <c r="E93">
+        <v>18576</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>24305</v>
+      </c>
+      <c r="D94">
+        <v>24305</v>
       </c>
       <c r="E94">
-        <v>28798</v>
+        <v>24305</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C95">
-        <v>28798</v>
+        <v>4044</v>
       </c>
       <c r="D95">
-        <v>28798</v>
+        <v>4044</v>
       </c>
       <c r="E95">
-        <v>28798</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C96">
-        <v>28798</v>
+        <v>64489</v>
       </c>
       <c r="D96">
-        <v>28798</v>
+        <v>64489</v>
       </c>
       <c r="E96">
-        <v>28798</v>
+        <v>64489</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C97">
-        <v>28798</v>
+        <v>3783</v>
       </c>
       <c r="D97">
-        <v>28798</v>
+        <v>3783</v>
       </c>
       <c r="E97">
-        <v>28798</v>
+        <v>3783</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C98">
-        <v>28798</v>
+        <v>11348</v>
       </c>
       <c r="D98">
-        <v>28798</v>
+        <v>11348</v>
       </c>
       <c r="E98">
-        <v>28798</v>
+        <v>11348</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>28</v>
+        <v>119</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>18676</v>
       </c>
       <c r="D99">
-        <v>15830.5</v>
+        <v>18676</v>
+      </c>
+      <c r="E99">
+        <v>18676</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C100">
-        <v>28798</v>
+        <v>26776</v>
       </c>
       <c r="D100">
-        <v>12967.5</v>
+        <v>26776</v>
       </c>
       <c r="E100">
-        <v>28798</v>
+        <v>26776</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C101">
-        <v>35048</v>
+        <v>30814</v>
       </c>
       <c r="D101">
-        <v>35048</v>
+        <v>30814</v>
       </c>
       <c r="E101">
-        <v>35048</v>
+        <v>30814</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C102">
-        <v>35048</v>
+        <v>17010</v>
       </c>
       <c r="D102">
-        <v>35048</v>
+        <v>17010</v>
       </c>
       <c r="E102">
-        <v>29029</v>
+        <v>17010</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>14104</v>
+      </c>
+      <c r="D103">
+        <v>14104</v>
       </c>
       <c r="E103">
-        <v>6019</v>
+        <v>14104</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C104">
-        <v>35048</v>
+        <v>59595</v>
       </c>
       <c r="D104">
-        <v>35048</v>
+        <v>59595</v>
       </c>
       <c r="E104">
-        <v>35048</v>
+        <v>59595</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C105">
-        <v>35048</v>
+        <v>21508</v>
       </c>
       <c r="D105">
-        <v>35048</v>
+        <v>21508</v>
       </c>
       <c r="E105">
-        <v>35048</v>
+        <v>21508</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C106">
-        <v>35048</v>
+        <v>10211</v>
       </c>
       <c r="D106">
-        <v>35048</v>
+        <v>10211</v>
       </c>
       <c r="E106">
-        <v>35048</v>
+        <v>10211</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C107">
-        <v>35048</v>
+        <v>10231</v>
       </c>
       <c r="D107">
-        <v>35048</v>
+        <v>10231</v>
       </c>
       <c r="E107">
-        <v>35048</v>
+        <v>10231</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C108">
+        <v>9329</v>
+      </c>
+      <c r="D108">
+        <v>9329</v>
       </c>
       <c r="E108">
-        <v>35048</v>
+        <v>9329</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>29</v>
+        <v>128</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C109">
-        <v>35048</v>
+        <v>14902</v>
       </c>
       <c r="D109">
-        <v>35048</v>
+        <v>14902</v>
+      </c>
+      <c r="E109">
+        <v>14902</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C110">
-        <v>9213</v>
+        <v>16339</v>
       </c>
       <c r="D110">
-        <v>9213</v>
+        <v>16339</v>
       </c>
       <c r="E110">
-        <v>9213</v>
+        <v>16339</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C111">
+        <v>9865</v>
+      </c>
+      <c r="D111">
+        <v>9865</v>
       </c>
       <c r="E111">
-        <v>9213</v>
+        <v>9865</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C112">
-        <v>5040</v>
+        <v>49826</v>
+      </c>
+      <c r="D112">
+        <v>49826</v>
+      </c>
+      <c r="E112">
+        <v>49826</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C113">
-        <v>4173</v>
+        <v>12385</v>
       </c>
       <c r="D113">
-        <v>9213</v>
+        <v>12385</v>
+      </c>
+      <c r="E113">
+        <v>12385</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114">
-        <v>9213</v>
+        <v>21825</v>
       </c>
       <c r="D114">
-        <v>9213</v>
+        <v>21825</v>
       </c>
       <c r="E114">
-        <v>9213</v>
+        <v>21825</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C115">
-        <v>9213</v>
+        <v>17366</v>
       </c>
       <c r="D115">
-        <v>9213</v>
+        <v>17366</v>
       </c>
       <c r="E115">
-        <v>9213</v>
+        <v>17366</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C116">
-        <v>9213</v>
-      </c>
-      <c r="D116">
-        <v>9213</v>
-      </c>
-      <c r="E116">
-        <v>9213</v>
-      </c>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117">
-        <v>9213</v>
-      </c>
-      <c r="D117">
-        <v>9213</v>
-      </c>
-      <c r="E117">
-        <v>9213</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118">
-        <v>9213</v>
-      </c>
-      <c r="D118">
-        <v>9213</v>
-      </c>
-      <c r="E118">
-        <v>9213</v>
-      </c>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>18576</v>
-      </c>
-      <c r="D119">
-        <v>18576</v>
-      </c>
-      <c r="E119">
-        <v>18576</v>
-      </c>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <v>17013</v>
-      </c>
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C121">
-        <v>1563</v>
-      </c>
-      <c r="D121">
-        <v>18576</v>
-      </c>
-      <c r="E121">
-        <v>18576</v>
-      </c>
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C122">
-        <v>18576</v>
-      </c>
-      <c r="D122">
-        <v>18576</v>
-      </c>
-      <c r="E122">
-        <v>18576</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C123">
-        <v>18576</v>
-      </c>
-      <c r="D123">
-        <v>18576</v>
-      </c>
-      <c r="E123">
-        <v>18576</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C124">
-        <v>18576</v>
-      </c>
-      <c r="D124">
-        <v>18576</v>
-      </c>
-      <c r="E124">
-        <v>18576</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125">
-        <v>18576</v>
-      </c>
-      <c r="D125">
-        <v>18576</v>
-      </c>
-      <c r="E125">
-        <v>18576</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126">
-        <v>18576</v>
-      </c>
-      <c r="E126">
-        <v>18576</v>
-      </c>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C127">
-        <v>18576</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>4044</v>
-      </c>
-      <c r="D128">
-        <v>4044</v>
-      </c>
-      <c r="E128">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E129">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C130">
-        <v>4044</v>
-      </c>
-      <c r="D130">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131">
-        <v>4044</v>
-      </c>
-      <c r="D131">
-        <v>4044</v>
-      </c>
-      <c r="E131">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C132">
-        <v>4044</v>
-      </c>
-      <c r="D132">
-        <v>4044</v>
-      </c>
-      <c r="E132">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133">
-        <v>4044</v>
-      </c>
-      <c r="D133">
-        <v>4044</v>
-      </c>
-      <c r="E133">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134">
-        <v>4044</v>
-      </c>
-      <c r="D134">
-        <v>4044</v>
-      </c>
-      <c r="E134">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C135">
-        <v>4044</v>
-      </c>
-      <c r="D135">
-        <v>4044</v>
-      </c>
-      <c r="E135">
-        <v>4044</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>3783</v>
-      </c>
-      <c r="D136">
-        <v>3783</v>
-      </c>
-      <c r="E136">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E137">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C138">
-        <v>3783</v>
-      </c>
-      <c r="D138">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E139">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C140">
-        <v>3783</v>
-      </c>
-      <c r="D140">
-        <v>3783</v>
-      </c>
-      <c r="E140">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C141">
-        <v>3783</v>
-      </c>
-      <c r="D141">
-        <v>3783</v>
-      </c>
-      <c r="E141">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C142">
-        <v>3783</v>
-      </c>
-      <c r="D142">
-        <v>3783</v>
-      </c>
-      <c r="E142">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143">
-        <v>3783</v>
-      </c>
-      <c r="D143">
-        <v>3783</v>
-      </c>
-      <c r="E143">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144">
-        <v>3783</v>
-      </c>
-      <c r="D144">
-        <v>3783</v>
-      </c>
-      <c r="E144">
-        <v>3783</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>26776</v>
-      </c>
-      <c r="D145">
-        <v>26776</v>
-      </c>
-      <c r="E145">
-        <v>26776</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146">
-        <v>26776</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E147">
-        <v>26776</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C148">
-        <v>26776</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C149">
-        <v>26776</v>
-      </c>
-      <c r="D149">
-        <v>26776</v>
-      </c>
-      <c r="E149">
-        <v>26776</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C150">
-        <v>26776</v>
-      </c>
-      <c r="D150">
-        <v>26776</v>
-      </c>
-      <c r="E150">
-        <v>26776</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151">
-        <v>26776</v>
-      </c>
-      <c r="D151">
-        <v>26776</v>
-      </c>
-      <c r="E151">
-        <v>26776</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152">
-        <v>26776</v>
-      </c>
-      <c r="D152">
-        <v>26776</v>
-      </c>
-      <c r="E152">
-        <v>26776</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153">
-        <v>26776</v>
-      </c>
-      <c r="E153">
-        <v>4704.5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D154">
-        <v>26776</v>
-      </c>
-      <c r="E154">
-        <v>22071.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>21825</v>
-      </c>
-      <c r="D155">
-        <v>21825</v>
-      </c>
-      <c r="E155">
-        <v>21825</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E156">
-        <v>21825</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C157">
-        <v>21825</v>
-      </c>
-      <c r="D157">
-        <v>21825</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C158">
-        <v>21825</v>
-      </c>
-      <c r="D158">
-        <v>21825</v>
-      </c>
-      <c r="E158">
-        <v>21825</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C159">
-        <v>21825</v>
-      </c>
-      <c r="D159">
-        <v>21825</v>
-      </c>
-      <c r="E159">
-        <v>21825</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C160">
-        <v>21825</v>
-      </c>
-      <c r="D160">
-        <v>21825</v>
-      </c>
-      <c r="E160">
-        <v>21825</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161">
-        <v>21825</v>
-      </c>
-      <c r="D161">
-        <v>21825</v>
-      </c>
-      <c r="E161">
-        <v>21825</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C162">
-        <v>21825</v>
-      </c>
-      <c r="E162">
-        <v>21825</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D163">
-        <v>21825</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C164">
-        <v>12338</v>
-      </c>
-      <c r="D164">
-        <v>12338</v>
-      </c>
-      <c r="E164">
-        <v>12338</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C165">
-        <v>12338</v>
-      </c>
-      <c r="D165">
-        <v>12338</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E166">
-        <v>12338</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C167">
-        <v>12338</v>
-      </c>
-      <c r="D167">
-        <v>12338</v>
-      </c>
-      <c r="E167">
-        <v>12338</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C168">
-        <v>12338</v>
-      </c>
-      <c r="D168">
-        <v>12338</v>
-      </c>
-      <c r="E168">
-        <v>12338</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C169">
-        <v>12338</v>
-      </c>
-      <c r="D169">
-        <v>12338</v>
-      </c>
-      <c r="E169">
-        <v>12338</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170">
-        <v>12338</v>
-      </c>
-      <c r="D170">
-        <v>12338</v>
-      </c>
-      <c r="E170">
-        <v>12338</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C171">
-        <v>12338</v>
-      </c>
-      <c r="D171">
-        <v>12338</v>
-      </c>
-      <c r="E171">
-        <v>12338</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C172">
-        <v>10406</v>
-      </c>
-      <c r="D172">
-        <v>10406</v>
-      </c>
-      <c r="E172">
-        <v>10406</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E173">
-        <v>10406</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C174">
-        <v>10406</v>
-      </c>
-      <c r="D174">
-        <v>10406</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C175">
-        <v>10406</v>
-      </c>
-      <c r="D175">
-        <v>10406</v>
-      </c>
-      <c r="E175">
-        <v>10406</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176">
-        <v>10406</v>
-      </c>
-      <c r="D176">
-        <v>10406</v>
-      </c>
-      <c r="E176">
-        <v>10406</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177">
-        <v>10406</v>
-      </c>
-      <c r="D177">
-        <v>10406</v>
-      </c>
-      <c r="E177">
-        <v>10406</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178">
-        <v>10406</v>
-      </c>
-      <c r="D178">
-        <v>10406</v>
-      </c>
-      <c r="E178">
-        <v>10406</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C179">
-        <v>10406</v>
-      </c>
-      <c r="D179">
-        <v>10406</v>
-      </c>
-      <c r="E179">
-        <v>10406</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/solution.xlsx
+++ b/solution.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpo\Desktop\GAMS\Bahia_Covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7DE5B6-9422-4365-B065-560015C71C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABF43BA-C71B-45C5-BE5A-C16C296F2DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{A9018DA2-444E-47A9-8B31-6A717B86AD9D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="186">
   <si>
     <t>r-jeremoabo</t>
   </si>
@@ -43,12 +43,6 @@
     <t>r-entre-rios</t>
   </si>
   <si>
-    <t>r-itaberaba</t>
-  </si>
-  <si>
-    <t>r-boquira</t>
-  </si>
-  <si>
     <t>metropolitana-salvador</t>
   </si>
   <si>
@@ -115,48 +109,15 @@
     <t>r-catu</t>
   </si>
   <si>
-    <t>r-euclides-da-cunha</t>
-  </si>
-  <si>
     <t>r-ilheus-itabuna</t>
   </si>
   <si>
     <t>r-cotegipe</t>
   </si>
   <si>
-    <t>r-barra</t>
-  </si>
-  <si>
-    <t>r-senhor-do-bonfim</t>
-  </si>
-  <si>
     <t>itanagra</t>
   </si>
   <si>
-    <t>mata-de-sao-joao</t>
-  </si>
-  <si>
-    <t>catu</t>
-  </si>
-  <si>
-    <t>pojuca</t>
-  </si>
-  <si>
-    <t>sao-sebastiao-do-passe</t>
-  </si>
-  <si>
-    <t>terra-nova</t>
-  </si>
-  <si>
-    <t>amelia-rodrigues</t>
-  </si>
-  <si>
-    <t>cansancao</t>
-  </si>
-  <si>
-    <t>canudos</t>
-  </si>
-  <si>
     <t>euclides-da-cunha</t>
   </si>
   <si>
@@ -172,15 +133,6 @@
     <t>quijingue</t>
   </si>
   <si>
-    <t>tucano</t>
-  </si>
-  <si>
-    <t>uaua</t>
-  </si>
-  <si>
-    <t>jeremoabo</t>
-  </si>
-  <si>
     <t>coronel-joao-sa</t>
   </si>
   <si>
@@ -199,21 +151,9 @@
     <t>esplanada</t>
   </si>
   <si>
-    <t>almadina</t>
-  </si>
-  <si>
     <t>arataca</t>
   </si>
   <si>
-    <t>aurelino-leal</t>
-  </si>
-  <si>
-    <t>barra-do-rocha</t>
-  </si>
-  <si>
-    <t>barro-preto</t>
-  </si>
-  <si>
     <t>belmonte</t>
   </si>
   <si>
@@ -223,51 +163,15 @@
     <t>camacan</t>
   </si>
   <si>
-    <t>canavieiras</t>
-  </si>
-  <si>
-    <t>coaraci</t>
-  </si>
-  <si>
-    <t>firmino-alves</t>
-  </si>
-  <si>
-    <t>floresta-azul</t>
-  </si>
-  <si>
-    <t>gandu</t>
-  </si>
-  <si>
-    <t>gongogi</t>
-  </si>
-  <si>
-    <t>ibicarai</t>
-  </si>
-  <si>
     <t>ibirapitanga</t>
   </si>
   <si>
     <t>ibirataia</t>
   </si>
   <si>
-    <t>ilheus</t>
-  </si>
-  <si>
-    <t>itabuna</t>
-  </si>
-  <si>
     <t>itacare</t>
   </si>
   <si>
-    <t>itagiba</t>
-  </si>
-  <si>
-    <t>itaju-do-colonia</t>
-  </si>
-  <si>
-    <t>itajuipe</t>
-  </si>
-  <si>
     <t>itamari</t>
   </si>
   <si>
@@ -277,33 +181,18 @@
     <t>itapebi</t>
   </si>
   <si>
-    <t>itapitanga</t>
-  </si>
-  <si>
     <t>jussari</t>
   </si>
   <si>
     <t>mascote</t>
   </si>
   <si>
-    <t>nova-ibia</t>
-  </si>
-  <si>
     <t>pau-brasil</t>
   </si>
   <si>
-    <t>santa-cruz-da-vitoria</t>
-  </si>
-  <si>
     <t>santa-luzia</t>
   </si>
   <si>
-    <t>sao-jose-da-vitoria</t>
-  </si>
-  <si>
-    <t>ubaitaba</t>
-  </si>
-  <si>
     <t>ubata</t>
   </si>
   <si>
@@ -316,9 +205,6 @@
     <t>wenceslau-guimaraes</t>
   </si>
   <si>
-    <t>angical</t>
-  </si>
-  <si>
     <t>brejolandia</t>
   </si>
   <si>
@@ -331,36 +217,18 @@
     <t>santa-rita-de-cassia</t>
   </si>
   <si>
-    <t>tabocas-do-brejo-velho</t>
-  </si>
-  <si>
     <t>wanderley</t>
   </si>
   <si>
     <t>barra</t>
   </si>
   <si>
-    <t>ibotirama</t>
-  </si>
-  <si>
     <t>itaguacu-da-bahia</t>
   </si>
   <si>
-    <t>morpara</t>
-  </si>
-  <si>
     <t>muquem-de-sao-francisco</t>
   </si>
   <si>
-    <t>xique-xique</t>
-  </si>
-  <si>
-    <t>andorinha</t>
-  </si>
-  <si>
-    <t>antonio-goncalves</t>
-  </si>
-  <si>
     <t>campo-formoso</t>
   </si>
   <si>
@@ -370,73 +238,361 @@
     <t>itiuba</t>
   </si>
   <si>
-    <t>jaguarari</t>
-  </si>
-  <si>
     <t>pindobacu</t>
   </si>
   <si>
-    <t>senhor-do-bonfim</t>
-  </si>
-  <si>
     <t>umburanas</t>
   </si>
   <si>
     <t>baixa-grande</t>
   </si>
   <si>
-    <t>iacu</t>
-  </si>
-  <si>
-    <t>itaberaba</t>
-  </si>
-  <si>
     <t>macajuba</t>
   </si>
   <si>
-    <t>mairi</t>
-  </si>
-  <si>
     <t>ruy-barbosa</t>
   </si>
   <si>
     <t>tapiramuta</t>
   </si>
   <si>
-    <t>varzea-da-roca</t>
-  </si>
-  <si>
-    <t>ipiau</t>
-  </si>
-  <si>
     <t>boquira</t>
   </si>
   <si>
-    <t>botupora</t>
-  </si>
-  <si>
-    <t>brotas-de-macaubas</t>
-  </si>
-  <si>
     <t>caturama</t>
   </si>
   <si>
     <t>ibipitanga</t>
   </si>
   <si>
-    <t>ibitiara</t>
-  </si>
-  <si>
     <t>ipupiara</t>
   </si>
   <si>
     <t>macaubas</t>
   </si>
   <si>
-    <t>novo-horizonte</t>
-  </si>
-  <si>
-    <t>tanque-novo</t>
+    <t>r-ribeira-do-pombal</t>
+  </si>
+  <si>
+    <t>r-bom-jesus-da-lapa</t>
+  </si>
+  <si>
+    <t>r-juazeiro</t>
+  </si>
+  <si>
+    <t>r-irece</t>
+  </si>
+  <si>
+    <t>r-seabra</t>
+  </si>
+  <si>
+    <t>r-livramento-de-nossa-senhora</t>
+  </si>
+  <si>
+    <t>jaguaripe</t>
+  </si>
+  <si>
+    <t>aratuipe</t>
+  </si>
+  <si>
+    <t>muniz-ferreira</t>
+  </si>
+  <si>
+    <t>conceicao-do-almeida</t>
+  </si>
+  <si>
+    <t>sapeacu</t>
+  </si>
+  <si>
+    <t>cabaceiras-do-paraguacu</t>
+  </si>
+  <si>
+    <t>governador-mangabeira</t>
+  </si>
+  <si>
+    <t>paripiranga</t>
+  </si>
+  <si>
+    <t>adustina</t>
+  </si>
+  <si>
+    <t>itapicuru</t>
+  </si>
+  <si>
+    <t>nova-soure</t>
+  </si>
+  <si>
+    <t>novo-triunfo</t>
+  </si>
+  <si>
+    <t>araci</t>
+  </si>
+  <si>
+    <t>candeal</t>
+  </si>
+  <si>
+    <t>gaviao</t>
+  </si>
+  <si>
+    <t>lamarao</t>
+  </si>
+  <si>
+    <t>camamu</t>
+  </si>
+  <si>
+    <t>igrapiuna</t>
+  </si>
+  <si>
+    <t>marau</t>
+  </si>
+  <si>
+    <t>nilo-pecanha</t>
+  </si>
+  <si>
+    <t>pirai-do-norte</t>
+  </si>
+  <si>
+    <t>taperoa</t>
+  </si>
+  <si>
+    <t>ipira</t>
+  </si>
+  <si>
+    <t>caravelas</t>
+  </si>
+  <si>
+    <t>guaratinga</t>
+  </si>
+  <si>
+    <t>jucurucu</t>
+  </si>
+  <si>
+    <t>prado</t>
+  </si>
+  <si>
+    <t>riachao-das-neves</t>
+  </si>
+  <si>
+    <t>cocos</t>
+  </si>
+  <si>
+    <t>correntina</t>
+  </si>
+  <si>
+    <t>jaborandi</t>
+  </si>
+  <si>
+    <t>serra-dourada</t>
+  </si>
+  <si>
+    <t>carinhanha</t>
+  </si>
+  <si>
+    <t>feira-da-mata</t>
+  </si>
+  <si>
+    <t>paratinga</t>
+  </si>
+  <si>
+    <t>serra-do-ramalho</t>
+  </si>
+  <si>
+    <t>sitio-do-mato</t>
+  </si>
+  <si>
+    <t>campo-alegre-de-lourdes</t>
+  </si>
+  <si>
+    <t>pilao-arcado</t>
+  </si>
+  <si>
+    <t>remanso</t>
+  </si>
+  <si>
+    <t>abare</t>
+  </si>
+  <si>
+    <t>chorrocho</t>
+  </si>
+  <si>
+    <t>macurure</t>
+  </si>
+  <si>
+    <t>mulungu-do-morro</t>
+  </si>
+  <si>
+    <t>caem</t>
+  </si>
+  <si>
+    <t>caldeirao-grande</t>
+  </si>
+  <si>
+    <t>miguel-calmon</t>
+  </si>
+  <si>
+    <t>morro-do-chapeu</t>
+  </si>
+  <si>
+    <t>piritiba</t>
+  </si>
+  <si>
+    <t>quixabeira</t>
+  </si>
+  <si>
+    <t>serrolandia</t>
+  </si>
+  <si>
+    <t>varzea-nova</t>
+  </si>
+  <si>
+    <t>agua-fria</t>
+  </si>
+  <si>
+    <t>anguera</t>
+  </si>
+  <si>
+    <t>antonio-cardoso</t>
+  </si>
+  <si>
+    <t>ipecaeta</t>
+  </si>
+  <si>
+    <t>pedrao</t>
+  </si>
+  <si>
+    <t>pintadas</t>
+  </si>
+  <si>
+    <t>rafael-jambeiro</t>
+  </si>
+  <si>
+    <t>santa-teresinha</t>
+  </si>
+  <si>
+    <t>santanopolis</t>
+  </si>
+  <si>
+    <t>serra-preta</t>
+  </si>
+  <si>
+    <t>teodoro-sampaio</t>
+  </si>
+  <si>
+    <t>candiba</t>
+  </si>
+  <si>
+    <t>iuiu</t>
+  </si>
+  <si>
+    <t>malhada</t>
+  </si>
+  <si>
+    <t>matina</t>
+  </si>
+  <si>
+    <t>palmas-de-monte-alto</t>
+  </si>
+  <si>
+    <t>pindai</t>
+  </si>
+  <si>
+    <t>riacho-de-santana</t>
+  </si>
+  <si>
+    <t>andarai</t>
+  </si>
+  <si>
+    <t>itaete</t>
+  </si>
+  <si>
+    <t>lencois</t>
+  </si>
+  <si>
+    <t>nova-redencao</t>
+  </si>
+  <si>
+    <t>aracatu</t>
+  </si>
+  <si>
+    <t>caraibas</t>
+  </si>
+  <si>
+    <t>condeuba</t>
+  </si>
+  <si>
+    <t>guajeru</t>
+  </si>
+  <si>
+    <t>maetinga</t>
+  </si>
+  <si>
+    <t>piripa</t>
+  </si>
+  <si>
+    <t>presidente-janio-quadros</t>
+  </si>
+  <si>
+    <t>tremedal</t>
+  </si>
+  <si>
+    <t>encruzilhada</t>
+  </si>
+  <si>
+    <t>ribeirao-do-largo</t>
+  </si>
+  <si>
+    <t>anage</t>
+  </si>
+  <si>
+    <t>boa-nova</t>
+  </si>
+  <si>
+    <t>bom-jesus-da-serra</t>
+  </si>
+  <si>
+    <t>caetanos</t>
+  </si>
+  <si>
+    <t>dario-meira</t>
+  </si>
+  <si>
+    <t>iguai</t>
+  </si>
+  <si>
+    <t>manoel-vitorino</t>
+  </si>
+  <si>
+    <t>mirante</t>
+  </si>
+  <si>
+    <t>nova-canaa</t>
+  </si>
+  <si>
+    <t>apuarema</t>
+  </si>
+  <si>
+    <t>brejoes</t>
+  </si>
+  <si>
+    <t>irajuba</t>
+  </si>
+  <si>
+    <t>iramaia</t>
+  </si>
+  <si>
+    <t>itaquara</t>
+  </si>
+  <si>
+    <t>jitauna</t>
+  </si>
+  <si>
+    <t>marcionilio-souza</t>
+  </si>
+  <si>
+    <t>nova-itarana</t>
+  </si>
+  <si>
+    <t>planaltino</t>
   </si>
 </sst>
 </file>
@@ -789,45 +945,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{703A9182-816B-4D90-AD0C-9CFD0A44F4F7}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -856,6 +1015,9 @@
         <v>1</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
     </row>
@@ -866,74 +1028,80 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA7FFCE-5AAA-4BD7-B146-107D24755BD5}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>229682</v>
+        <v>114841</v>
       </c>
       <c r="B2">
-        <v>302581</v>
+        <v>48612</v>
       </c>
       <c r="C2">
-        <v>97224</v>
+        <v>221657</v>
       </c>
       <c r="D2">
-        <v>124858</v>
+        <v>286901</v>
       </c>
       <c r="E2">
-        <v>1002092</v>
+        <v>501046</v>
       </c>
       <c r="F2">
-        <v>118963</v>
+        <v>191492</v>
       </c>
       <c r="G2">
-        <v>182458</v>
+        <v>90157.5</v>
       </c>
       <c r="H2">
-        <v>302022</v>
+        <v>246052.5</v>
       </c>
       <c r="I2">
-        <v>423690.20000000019</v>
+        <v>646561</v>
       </c>
       <c r="J2">
-        <v>193787</v>
+        <v>349367.20000000019</v>
+      </c>
+      <c r="K2">
+        <v>280670</v>
       </c>
     </row>
   </sheetData>
@@ -951,48 +1119,48 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>229682</v>
+        <v>114841</v>
       </c>
       <c r="B2">
-        <v>524663</v>
+        <v>557170</v>
       </c>
       <c r="C2">
-        <v>1002092</v>
+        <v>501046</v>
       </c>
       <c r="D2">
-        <v>118963</v>
+        <v>191492</v>
       </c>
       <c r="E2">
-        <v>182458</v>
+        <v>336210</v>
       </c>
       <c r="F2">
-        <v>725712.20000000019</v>
+        <v>646561</v>
       </c>
       <c r="G2">
-        <v>193787</v>
+        <v>630037.20000000019</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE71CA9C-065D-4501-916C-FF67E6D1198D}">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E223"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1010,333 +1178,297 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>6441</v>
+        <v>18788</v>
       </c>
       <c r="D2">
-        <v>6441</v>
+        <v>18788</v>
       </c>
       <c r="E2">
-        <v>6441</v>
+        <v>18788</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>46583</v>
+        <v>8825</v>
       </c>
       <c r="D3">
-        <v>46583</v>
+        <v>8825</v>
       </c>
       <c r="E3">
-        <v>46583</v>
+        <v>8825</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>54704</v>
+        <v>6613</v>
       </c>
       <c r="D4">
-        <v>54704</v>
+        <v>6613</v>
       </c>
       <c r="E4">
-        <v>54704</v>
+        <v>6613</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>39519</v>
+        <v>17247</v>
       </c>
       <c r="D5">
-        <v>39519</v>
+        <v>17247</v>
       </c>
       <c r="E5">
-        <v>39519</v>
+        <v>17247</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>44300</v>
+        <v>17398</v>
       </c>
       <c r="D6">
-        <v>44300</v>
+        <v>17398</v>
       </c>
       <c r="E6">
-        <v>44300</v>
+        <v>17398</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>13033</v>
+        <v>18807</v>
       </c>
       <c r="D7">
-        <v>13033</v>
+        <v>18807</v>
       </c>
       <c r="E7">
-        <v>13033</v>
+        <v>18807</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>25102</v>
+        <v>20722</v>
       </c>
       <c r="D8">
-        <v>25102</v>
+        <v>20722</v>
       </c>
       <c r="E8">
-        <v>25102</v>
+        <v>20722</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9">
-        <v>34834</v>
+        <v>6441</v>
       </c>
       <c r="D9">
-        <v>34834</v>
+        <v>6441</v>
       </c>
       <c r="E9">
-        <v>34834</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>16668</v>
+        <v>60585</v>
       </c>
       <c r="D10">
-        <v>16668</v>
+        <v>60585</v>
       </c>
       <c r="E10">
-        <v>16668</v>
+        <v>60585</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>60585</v>
+        <v>49418</v>
       </c>
       <c r="D11">
-        <v>60585</v>
+        <v>49418</v>
       </c>
       <c r="E11">
-        <v>60585</v>
+        <v>49418</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>49418</v>
-      </c>
-      <c r="D12">
-        <v>49418</v>
-      </c>
-      <c r="E12">
-        <v>49418</v>
+        <v>13130</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>13130</v>
+        <v>78</v>
       </c>
       <c r="D13">
         <v>13130</v>
       </c>
-      <c r="E13">
-        <v>13130</v>
-      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14">
-        <v>25439</v>
-      </c>
-      <c r="D14">
-        <v>25439</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>25439</v>
+        <v>13130</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15">
-        <v>27580</v>
+        <v>78</v>
       </c>
       <c r="D15">
-        <v>27580</v>
+        <v>25439</v>
       </c>
       <c r="E15">
-        <v>27580</v>
+        <v>25439</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>50687</v>
-      </c>
-      <c r="D16">
-        <v>50687</v>
-      </c>
-      <c r="E16">
-        <v>50687</v>
+        <v>25439</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C17">
-        <v>24240</v>
+        <v>27580</v>
       </c>
       <c r="D17">
-        <v>24240</v>
+        <v>27580</v>
       </c>
       <c r="E17">
-        <v>24240</v>
+        <v>27580</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C18">
-        <v>40463</v>
+        <v>15895</v>
       </c>
       <c r="D18">
-        <v>40463</v>
+        <v>15895</v>
       </c>
       <c r="E18">
-        <v>40463</v>
+        <v>15895</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C19">
-        <v>15895</v>
+        <v>16667</v>
       </c>
       <c r="D19">
-        <v>15895</v>
-      </c>
-      <c r="E19">
-        <v>15895</v>
+        <v>16667</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>16667</v>
-      </c>
-      <c r="D20">
-        <v>16667</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>16667</v>
@@ -1344,10 +1476,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>14213</v>
@@ -1361,10 +1493,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>9986</v>
@@ -1378,1840 +1510,2973 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>9295</v>
+        <v>28989</v>
       </c>
       <c r="D23">
-        <v>9295</v>
+        <v>28989</v>
       </c>
       <c r="E23">
-        <v>9295</v>
+        <v>28989</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>25837</v>
-      </c>
-      <c r="D24">
-        <v>25837</v>
-      </c>
-      <c r="E24">
-        <v>25837</v>
+        <v>8535</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="C25">
-        <v>41780</v>
-      </c>
-      <c r="D25">
-        <v>41780</v>
+        <v>8505</v>
       </c>
       <c r="E25">
-        <v>41780</v>
+        <v>17040</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26">
-        <v>37237</v>
-      </c>
       <c r="D26">
-        <v>37237</v>
-      </c>
-      <c r="E26">
-        <v>37237</v>
+        <v>17040</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>10709</v>
-      </c>
-      <c r="D27">
-        <v>10709</v>
+        <v>78</v>
       </c>
       <c r="E27">
-        <v>10709</v>
+        <v>35576</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>5464</v>
+        <v>35576</v>
       </c>
       <c r="D28">
-        <v>5464</v>
-      </c>
-      <c r="E28">
-        <v>5464</v>
+        <v>35576</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>11019</v>
-      </c>
-      <c r="D29">
-        <v>11019</v>
+        <v>26947</v>
       </c>
       <c r="E29">
-        <v>11019</v>
+        <v>22775</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30">
-        <v>11531</v>
+        <v>78</v>
       </c>
       <c r="D30">
-        <v>11531</v>
+        <v>26947</v>
       </c>
       <c r="E30">
-        <v>11531</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31">
-        <v>5714</v>
-      </c>
-      <c r="D31">
-        <v>5714</v>
+        <v>78</v>
       </c>
       <c r="E31">
-        <v>5714</v>
+        <v>15440</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>5591</v>
+        <v>15440</v>
       </c>
       <c r="D32">
-        <v>5591</v>
-      </c>
-      <c r="E32">
-        <v>5591</v>
+        <v>15440</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33">
-        <v>23328</v>
-      </c>
-      <c r="D33">
-        <v>23328</v>
+        <v>78</v>
       </c>
       <c r="E33">
-        <v>23328</v>
+        <v>9295</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>18349</v>
+        <v>9295</v>
       </c>
       <c r="D34">
-        <v>18349</v>
-      </c>
-      <c r="E34">
-        <v>18349</v>
+        <v>9295</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35">
-        <v>31988</v>
-      </c>
-      <c r="D35">
-        <v>31988</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>31988</v>
+        <v>25837</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C36">
-        <v>31099</v>
-      </c>
-      <c r="D36">
-        <v>31099</v>
-      </c>
-      <c r="E36">
-        <v>31099</v>
+        <v>25837</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37">
-        <v>16993</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>16993</v>
-      </c>
-      <c r="E37">
-        <v>16993</v>
+        <v>25837</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38">
-        <v>5617</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>5617</v>
-      </c>
-      <c r="E38">
-        <v>5617</v>
+        <v>41780</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C39">
-        <v>10629</v>
-      </c>
-      <c r="D39">
-        <v>10629</v>
-      </c>
-      <c r="E39">
-        <v>10629</v>
+        <v>41780</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C40">
-        <v>32403</v>
-      </c>
-      <c r="D40">
-        <v>32403</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>32403</v>
+        <v>41780</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41">
-        <v>7128</v>
+        <v>78</v>
       </c>
       <c r="D41">
-        <v>7128</v>
+        <v>11192</v>
       </c>
       <c r="E41">
-        <v>7128</v>
+        <v>37237</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>21689</v>
+        <v>37237</v>
       </c>
       <c r="D42">
-        <v>21689</v>
-      </c>
-      <c r="E42">
-        <v>21689</v>
+        <v>26045</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43">
-        <v>23375</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>23375</v>
-      </c>
-      <c r="E43">
-        <v>23375</v>
+        <v>6832</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44">
-        <v>15312</v>
+        <v>78</v>
       </c>
       <c r="D44">
-        <v>15312</v>
-      </c>
-      <c r="E44">
-        <v>15312</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C45">
-        <v>162327</v>
-      </c>
-      <c r="D45">
-        <v>162327</v>
+        <v>10709</v>
       </c>
       <c r="E45">
-        <v>162327</v>
+        <v>10709</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C46">
-        <v>213223</v>
+        <v>54379</v>
       </c>
       <c r="D46">
-        <v>213223</v>
+        <v>54379</v>
       </c>
       <c r="E46">
-        <v>213223</v>
+        <v>15739</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47">
-        <v>28296</v>
-      </c>
-      <c r="D47">
-        <v>28296</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>28296</v>
+        <v>38640</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C48">
-        <v>14579</v>
+        <v>8258</v>
       </c>
       <c r="D48">
-        <v>14579</v>
+        <v>8258</v>
       </c>
       <c r="E48">
-        <v>14579</v>
+        <v>8258</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C49">
-        <v>6682</v>
-      </c>
-      <c r="D49">
-        <v>6682</v>
-      </c>
-      <c r="E49">
-        <v>6682</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50">
-        <v>20491</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>20491</v>
+        <v>4463</v>
       </c>
       <c r="E50">
-        <v>20491</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C51">
-        <v>8035</v>
+        <v>8307</v>
       </c>
       <c r="D51">
-        <v>8035</v>
-      </c>
-      <c r="E51">
-        <v>8035</v>
+        <v>8307</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52">
-        <v>8761</v>
-      </c>
-      <c r="D52">
-        <v>8761</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>8761</v>
+        <v>8307</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C53">
-        <v>10259</v>
+        <v>35316</v>
       </c>
       <c r="D53">
-        <v>10259</v>
+        <v>35316</v>
       </c>
       <c r="E53">
-        <v>10259</v>
+        <v>35316</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C54">
-        <v>10313</v>
+        <v>13226</v>
       </c>
       <c r="D54">
-        <v>10313</v>
+        <v>13226</v>
       </c>
       <c r="E54">
-        <v>10313</v>
+        <v>13226</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C55">
-        <v>5833</v>
+        <v>20570</v>
       </c>
       <c r="D55">
-        <v>5833</v>
+        <v>20570</v>
       </c>
       <c r="E55">
-        <v>5833</v>
+        <v>20570</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C56">
-        <v>13822</v>
+        <v>13997</v>
       </c>
       <c r="D56">
-        <v>13822</v>
+        <v>13997</v>
       </c>
       <c r="E56">
-        <v>13822</v>
+        <v>13997</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C57">
-        <v>6591</v>
+        <v>10023</v>
       </c>
       <c r="D57">
-        <v>6591</v>
+        <v>10023</v>
       </c>
       <c r="E57">
-        <v>6591</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C58">
-        <v>9831</v>
+        <v>21074</v>
       </c>
       <c r="D58">
-        <v>9831</v>
+        <v>21074</v>
       </c>
       <c r="E58">
-        <v>9831</v>
+        <v>21074</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C59">
-        <v>6315</v>
+        <v>11019</v>
       </c>
       <c r="D59">
-        <v>6315</v>
+        <v>11019</v>
       </c>
       <c r="E59">
-        <v>6315</v>
+        <v>11019</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C60">
-        <v>12597</v>
+        <v>23328</v>
       </c>
       <c r="D60">
-        <v>12597</v>
+        <v>23328</v>
       </c>
       <c r="E60">
-        <v>12597</v>
+        <v>23328</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>87</v>
+        <v>40</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C61">
-        <v>5657</v>
+        <v>1625</v>
       </c>
       <c r="D61">
-        <v>5657</v>
+        <v>1625</v>
       </c>
       <c r="E61">
-        <v>5657</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C62">
-        <v>14943</v>
+        <v>31988</v>
       </c>
       <c r="D62">
-        <v>14943</v>
+        <v>31988</v>
       </c>
       <c r="E62">
-        <v>14943</v>
+        <v>31988</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C63">
-        <v>19056</v>
+        <v>23375</v>
       </c>
       <c r="D63">
-        <v>19056</v>
+        <v>23375</v>
       </c>
       <c r="E63">
-        <v>19056</v>
+        <v>23375</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C64">
-        <v>27035</v>
+        <v>15312</v>
       </c>
       <c r="D64">
-        <v>27035</v>
+        <v>15312</v>
       </c>
       <c r="E64">
-        <v>27035</v>
+        <v>15312</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C65">
-        <v>19002</v>
+        <v>59595</v>
       </c>
       <c r="D65">
-        <v>19002</v>
+        <v>59595</v>
       </c>
       <c r="E65">
-        <v>19002</v>
+        <v>59595</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C66">
-        <v>20519</v>
+        <v>28296</v>
       </c>
       <c r="D66">
-        <v>20519</v>
+        <v>28296</v>
       </c>
       <c r="E66">
-        <v>20519</v>
+        <v>28296</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C67">
-        <v>21101</v>
+        <v>8035</v>
       </c>
       <c r="D67">
-        <v>21101</v>
+        <v>8035</v>
       </c>
       <c r="E67">
-        <v>21101</v>
+        <v>8035</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C68">
-        <v>13977</v>
+        <v>8761</v>
       </c>
       <c r="D68">
-        <v>13977</v>
+        <v>8761</v>
       </c>
       <c r="E68">
-        <v>13977</v>
+        <v>8761</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C69">
-        <v>10557</v>
+        <v>10259</v>
       </c>
       <c r="D69">
-        <v>10557</v>
+        <v>10259</v>
       </c>
       <c r="E69">
-        <v>10557</v>
+        <v>10259</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C70">
-        <v>13782</v>
+        <v>5833</v>
       </c>
       <c r="D70">
-        <v>13782</v>
+        <v>5833</v>
       </c>
       <c r="E70">
-        <v>13782</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C71">
-        <v>13910</v>
+        <v>13822</v>
       </c>
       <c r="D71">
-        <v>13910</v>
+        <v>13822</v>
       </c>
       <c r="E71">
-        <v>13910</v>
+        <v>13822</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C72">
-        <v>13643</v>
+        <v>9831</v>
       </c>
       <c r="D72">
-        <v>13643</v>
+        <v>9831</v>
       </c>
       <c r="E72">
-        <v>13643</v>
+        <v>9831</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C73">
-        <v>28338</v>
+        <v>12597</v>
       </c>
       <c r="D73">
-        <v>28338</v>
+        <v>12597</v>
       </c>
       <c r="E73">
-        <v>28338</v>
+        <v>12597</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C74">
-        <v>12518</v>
+        <v>14943</v>
       </c>
       <c r="D74">
-        <v>12518</v>
+        <v>14943</v>
       </c>
       <c r="E74">
-        <v>12518</v>
+        <v>14943</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C75">
-        <v>12238</v>
+        <v>27035</v>
       </c>
       <c r="D75">
-        <v>12238</v>
+        <v>27035</v>
       </c>
       <c r="E75">
-        <v>12238</v>
+        <v>27035</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C76">
-        <v>53578</v>
+        <v>19002</v>
       </c>
       <c r="D76">
-        <v>53578</v>
+        <v>19002</v>
       </c>
       <c r="E76">
-        <v>53578</v>
+        <v>19002</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C77">
-        <v>21174</v>
+        <v>20519</v>
       </c>
       <c r="D77">
-        <v>21174</v>
+        <v>20519</v>
       </c>
       <c r="E77">
-        <v>21174</v>
+        <v>20519</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C78">
-        <v>26927</v>
+        <v>21101</v>
       </c>
       <c r="D78">
-        <v>26927</v>
+        <v>21101</v>
       </c>
       <c r="E78">
-        <v>26927</v>
+        <v>21101</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C79">
-        <v>14429</v>
+        <v>22016</v>
       </c>
       <c r="D79">
-        <v>14429</v>
+        <v>22016</v>
       </c>
       <c r="E79">
-        <v>14429</v>
+        <v>22016</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C80">
-        <v>8519</v>
+        <v>20843</v>
       </c>
       <c r="D80">
-        <v>8519</v>
+        <v>20843</v>
       </c>
       <c r="E80">
-        <v>8519</v>
+        <v>20843</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C81">
-        <v>11348</v>
+        <v>9126</v>
       </c>
       <c r="D81">
-        <v>11348</v>
+        <v>9126</v>
       </c>
       <c r="E81">
-        <v>11348</v>
+        <v>9126</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C82">
-        <v>46483</v>
+        <v>28174</v>
       </c>
       <c r="D82">
-        <v>46483</v>
+        <v>28174</v>
       </c>
       <c r="E82">
-        <v>46483</v>
+        <v>28174</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C83">
-        <v>14595</v>
+        <v>22339</v>
       </c>
       <c r="D83">
-        <v>14595</v>
+        <v>22339</v>
       </c>
       <c r="E83">
-        <v>14595</v>
+        <v>22339</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C84">
-        <v>11798</v>
+        <v>18777</v>
       </c>
       <c r="D84">
-        <v>11798</v>
+        <v>18777</v>
       </c>
       <c r="E84">
-        <v>11798</v>
+        <v>18777</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C85">
-        <v>71206</v>
+        <v>32137</v>
       </c>
       <c r="D85">
-        <v>71206</v>
+        <v>32137</v>
       </c>
       <c r="E85">
-        <v>71206</v>
+        <v>32137</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C86">
-        <v>16377</v>
+        <v>8385</v>
       </c>
       <c r="D86">
-        <v>16377</v>
+        <v>8385</v>
       </c>
       <c r="E86">
-        <v>16377</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C87">
-        <v>36089</v>
+        <v>17386</v>
       </c>
       <c r="D87">
-        <v>36089</v>
+        <v>17386</v>
       </c>
       <c r="E87">
-        <v>36089</v>
+        <v>17386</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C88">
-        <v>33570</v>
+        <v>10557</v>
       </c>
       <c r="D88">
-        <v>33570</v>
+        <v>10557</v>
       </c>
       <c r="E88">
-        <v>33570</v>
+        <v>10557</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C89">
-        <v>20150</v>
+        <v>13782</v>
       </c>
       <c r="D89">
-        <v>20150</v>
+        <v>13782</v>
       </c>
       <c r="E89">
-        <v>20150</v>
+        <v>13782</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C90">
-        <v>79015</v>
+        <v>13910</v>
       </c>
       <c r="D90">
-        <v>79015</v>
+        <v>13910</v>
       </c>
       <c r="E90">
-        <v>79015</v>
+        <v>13910</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C91">
-        <v>19222</v>
+        <v>13643</v>
       </c>
       <c r="D91">
-        <v>19222</v>
+        <v>13643</v>
       </c>
       <c r="E91">
-        <v>19222</v>
+        <v>13643</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C92">
-        <v>20468</v>
+        <v>28338</v>
       </c>
       <c r="D92">
-        <v>20468</v>
+        <v>28338</v>
       </c>
       <c r="E92">
-        <v>20468</v>
+        <v>28338</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C93">
-        <v>18576</v>
+        <v>12238</v>
       </c>
       <c r="D93">
-        <v>18576</v>
+        <v>12238</v>
       </c>
       <c r="E93">
-        <v>18576</v>
+        <v>12238</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C94">
-        <v>24305</v>
-      </c>
-      <c r="D94">
-        <v>24305</v>
+        <v>79</v>
       </c>
       <c r="E94">
-        <v>24305</v>
+        <v>9828.5</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C95">
-        <v>4044</v>
+        <v>53578</v>
       </c>
       <c r="D95">
-        <v>4044</v>
+        <v>53578</v>
       </c>
       <c r="E95">
-        <v>4044</v>
+        <v>43749.5</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C96">
-        <v>64489</v>
+        <v>79</v>
       </c>
       <c r="D96">
-        <v>64489</v>
-      </c>
-      <c r="E96">
-        <v>64489</v>
+        <v>21174</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C97">
-        <v>3783</v>
-      </c>
-      <c r="D97">
-        <v>3783</v>
+        <v>21174</v>
       </c>
       <c r="E97">
-        <v>3783</v>
+        <v>21174</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C98">
-        <v>11348</v>
+        <v>14429</v>
       </c>
       <c r="D98">
-        <v>11348</v>
+        <v>14429</v>
       </c>
       <c r="E98">
-        <v>11348</v>
+        <v>14429</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C99">
-        <v>18676</v>
+        <v>11348</v>
       </c>
       <c r="D99">
-        <v>18676</v>
+        <v>11348</v>
       </c>
       <c r="E99">
-        <v>18676</v>
+        <v>11348</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100">
-        <v>26776</v>
-      </c>
-      <c r="D100">
-        <v>26776</v>
+        <v>79</v>
       </c>
       <c r="E100">
-        <v>26776</v>
+        <v>29018</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="C101">
-        <v>30814</v>
+        <v>29018</v>
       </c>
       <c r="D101">
-        <v>30814</v>
-      </c>
-      <c r="E101">
-        <v>30814</v>
+        <v>29018</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C102">
-        <v>17010</v>
+        <v>5665</v>
       </c>
       <c r="D102">
-        <v>17010</v>
+        <v>5665</v>
       </c>
       <c r="E102">
-        <v>17010</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="C103">
-        <v>14104</v>
-      </c>
-      <c r="D103">
-        <v>14104</v>
-      </c>
-      <c r="E103">
-        <v>14104</v>
+        <v>25834.5</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C104">
-        <v>59595</v>
+        <v>6165.5</v>
       </c>
       <c r="D104">
-        <v>59595</v>
+        <v>32000</v>
       </c>
       <c r="E104">
-        <v>59595</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C105">
-        <v>21508</v>
-      </c>
-      <c r="D105">
-        <v>21508</v>
+        <v>12045</v>
       </c>
       <c r="E105">
-        <v>21508</v>
+        <v>12045</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106">
-        <v>10211</v>
+        <v>80</v>
       </c>
       <c r="D106">
-        <v>10211</v>
-      </c>
-      <c r="E106">
-        <v>10211</v>
+        <v>12045</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C107">
-        <v>10231</v>
-      </c>
-      <c r="D107">
-        <v>10231</v>
-      </c>
-      <c r="E107">
-        <v>10231</v>
+        <v>13012</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C108">
-        <v>9329</v>
+        <v>80</v>
       </c>
       <c r="D108">
-        <v>9329</v>
+        <v>13012</v>
       </c>
       <c r="E108">
-        <v>9329</v>
+        <v>13012</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C109">
-        <v>14902</v>
+        <v>28798</v>
       </c>
       <c r="D109">
-        <v>14902</v>
+        <v>28798</v>
       </c>
       <c r="E109">
-        <v>14902</v>
+        <v>28798</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C110">
-        <v>16339</v>
+        <v>35048</v>
       </c>
       <c r="D110">
-        <v>16339</v>
+        <v>35048</v>
       </c>
       <c r="E110">
-        <v>16339</v>
+        <v>35048</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C111">
-        <v>9865</v>
+        <v>79</v>
       </c>
       <c r="D111">
-        <v>9865</v>
-      </c>
-      <c r="E111">
-        <v>9865</v>
+        <v>29717.5</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C112">
-        <v>49826</v>
+        <v>41008</v>
       </c>
       <c r="D112">
-        <v>49826</v>
+        <v>11290.5</v>
       </c>
       <c r="E112">
-        <v>49826</v>
+        <v>41008</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C113">
-        <v>12385</v>
+        <v>20086</v>
       </c>
       <c r="D113">
-        <v>12385</v>
+        <v>20086</v>
       </c>
       <c r="E113">
-        <v>12385</v>
+        <v>20086</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="C114">
-        <v>21825</v>
+        <v>11177</v>
       </c>
       <c r="D114">
-        <v>21825</v>
+        <v>11177</v>
       </c>
       <c r="E114">
-        <v>21825</v>
+        <v>11177</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C115">
+        <v>7824</v>
+      </c>
+      <c r="D115">
+        <v>7824</v>
+      </c>
+      <c r="E115">
+        <v>7824</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C116">
+        <v>71206</v>
+      </c>
+      <c r="D116">
+        <v>71206</v>
+      </c>
+      <c r="E116">
+        <v>71206</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117">
+        <v>16377</v>
+      </c>
+      <c r="D117">
+        <v>16377</v>
+      </c>
+      <c r="E117">
+        <v>16377</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118">
+        <v>36089</v>
+      </c>
+      <c r="D118">
+        <v>36089</v>
+      </c>
+      <c r="E118">
+        <v>36089</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119">
+        <v>20150</v>
+      </c>
+      <c r="D119">
+        <v>20150</v>
+      </c>
+      <c r="E119">
+        <v>20150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120">
+        <v>19222</v>
+      </c>
+      <c r="D120">
+        <v>19222</v>
+      </c>
+      <c r="E120">
+        <v>19222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C121">
+        <v>10889</v>
+      </c>
+      <c r="D121">
+        <v>10889</v>
+      </c>
+      <c r="E121">
+        <v>10889</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122">
+        <v>9213</v>
+      </c>
+      <c r="D122">
+        <v>9213</v>
+      </c>
+      <c r="E122">
+        <v>9213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C123">
+        <v>13327</v>
+      </c>
+      <c r="D123">
+        <v>13327</v>
+      </c>
+      <c r="E123">
+        <v>13327</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C124">
+        <v>26023</v>
+      </c>
+      <c r="D124">
+        <v>26023</v>
+      </c>
+      <c r="E124">
+        <v>26023</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C125">
+        <v>35413</v>
+      </c>
+      <c r="D125">
+        <v>35413</v>
+      </c>
+      <c r="E125">
+        <v>35413</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126">
+        <v>24755</v>
+      </c>
+      <c r="D126">
+        <v>24755</v>
+      </c>
+      <c r="E126">
+        <v>24755</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C115">
-        <v>17366</v>
-      </c>
-      <c r="D115">
-        <v>17366</v>
-      </c>
-      <c r="E115">
-        <v>17366</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1"/>
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1"/>
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
+      <c r="B127" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C127">
+        <v>8972</v>
+      </c>
+      <c r="D127">
+        <v>8972</v>
+      </c>
+      <c r="E127">
+        <v>8972</v>
+      </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C128">
+        <v>13397</v>
+      </c>
+      <c r="D128">
+        <v>13397</v>
+      </c>
+      <c r="E128">
+        <v>13397</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C129">
+        <v>12697</v>
+      </c>
+      <c r="D129">
+        <v>12697</v>
+      </c>
+      <c r="E129">
+        <v>12697</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130">
+        <v>20468</v>
+      </c>
+      <c r="D130">
+        <v>20468</v>
+      </c>
+      <c r="E130">
+        <v>20468</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131">
+        <v>18576</v>
+      </c>
+      <c r="D131">
+        <v>18576</v>
+      </c>
+      <c r="E131">
+        <v>18576</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132">
+        <v>4044</v>
+      </c>
+      <c r="D132">
+        <v>4044</v>
+      </c>
+      <c r="E132">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C133">
+        <v>3783</v>
+      </c>
+      <c r="D133">
+        <v>3783</v>
+      </c>
+      <c r="E133">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C134">
+        <v>11348</v>
+      </c>
+      <c r="D134">
+        <v>11348</v>
+      </c>
+      <c r="E134">
+        <v>11348</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C135">
+        <v>26776</v>
+      </c>
+      <c r="D135">
+        <v>26776</v>
+      </c>
+      <c r="E135">
+        <v>26776</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136">
+        <v>30814</v>
+      </c>
+      <c r="D136">
+        <v>30814</v>
+      </c>
+      <c r="E136">
+        <v>30814</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C137">
+        <v>17010</v>
+      </c>
+      <c r="D137">
+        <v>17010</v>
+      </c>
+      <c r="E137">
+        <v>17010</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C138">
+        <v>16970</v>
+      </c>
+      <c r="D138">
+        <v>16970</v>
+      </c>
+      <c r="E138">
+        <v>16970</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C139">
+        <v>11221</v>
+      </c>
+      <c r="D139">
+        <v>11221</v>
+      </c>
+      <c r="E139">
+        <v>11221</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C140">
+        <v>11683</v>
+      </c>
+      <c r="D140">
+        <v>11683</v>
+      </c>
+      <c r="E140">
+        <v>11683</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C141">
+        <v>14487</v>
+      </c>
+      <c r="D141">
+        <v>14487</v>
+      </c>
+      <c r="E141">
+        <v>14487</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C142">
+        <v>7347</v>
+      </c>
+      <c r="D142">
+        <v>7347</v>
+      </c>
+      <c r="E142">
+        <v>7347</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C143">
+        <v>10437</v>
+      </c>
+      <c r="D143">
+        <v>10437</v>
+      </c>
+      <c r="E143">
+        <v>10437</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144">
+        <v>22621</v>
+      </c>
+      <c r="D144">
+        <v>22621</v>
+      </c>
+      <c r="E144">
+        <v>22621</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C145">
+        <v>10405</v>
+      </c>
+      <c r="D145">
+        <v>10405</v>
+      </c>
+      <c r="E145">
+        <v>10405</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C146">
+        <v>8943</v>
+      </c>
+      <c r="D146">
+        <v>8943</v>
+      </c>
+      <c r="E146">
+        <v>8943</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C147">
+        <v>14878</v>
+      </c>
+      <c r="D147">
+        <v>14878</v>
+      </c>
+      <c r="E147">
+        <v>14878</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C148">
+        <v>7425</v>
+      </c>
+      <c r="D148">
+        <v>7425</v>
+      </c>
+      <c r="E148">
+        <v>7425</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149">
+        <v>21508</v>
+      </c>
+      <c r="E149">
+        <v>21508</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D150">
+        <v>21508</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C151">
+        <v>9329</v>
+      </c>
+      <c r="D151">
+        <v>9329</v>
+      </c>
+      <c r="E151">
+        <v>9329</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C152">
+        <v>14902</v>
+      </c>
+      <c r="E152">
+        <v>14902</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D153">
+        <v>14902</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D154">
+        <v>9865</v>
+      </c>
+      <c r="E154">
+        <v>9865</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155">
+        <v>9865</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C156">
+        <v>49826</v>
+      </c>
+      <c r="D156">
+        <v>49826</v>
+      </c>
+      <c r="E156">
+        <v>49826</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C157">
+        <v>21825</v>
+      </c>
+      <c r="D157">
+        <v>21825</v>
+      </c>
+      <c r="E157">
+        <v>21825</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D158">
+        <v>14319</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C159">
+        <v>14319</v>
+      </c>
+      <c r="E159">
+        <v>14319</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C160">
+        <v>10994</v>
+      </c>
+      <c r="D160">
+        <v>10994</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E161">
+        <v>10994</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C162">
+        <v>16845</v>
+      </c>
+      <c r="E162">
+        <v>16845</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D163">
+        <v>16845</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D164">
+        <v>12201</v>
+      </c>
+      <c r="E164">
+        <v>12201</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C165">
+        <v>12201</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C166">
+        <v>21750</v>
+      </c>
+      <c r="D166">
+        <v>21750</v>
+      </c>
+      <c r="E166">
+        <v>21750</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E167">
+        <v>16260</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C168">
+        <v>16260</v>
+      </c>
+      <c r="D168">
+        <v>16260</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D169">
+        <v>35421</v>
+      </c>
+      <c r="E169">
+        <v>35421</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C170">
+        <v>35421</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C171">
+        <v>13143</v>
+      </c>
+      <c r="D171">
+        <v>13143</v>
+      </c>
+      <c r="E171">
+        <v>13143</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E172">
+        <v>16056</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C173">
+        <v>16056</v>
+      </c>
+      <c r="D173">
+        <v>16056</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C174">
+        <v>11409</v>
+      </c>
+      <c r="D174">
+        <v>11409</v>
+      </c>
+      <c r="E174">
+        <v>11409</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C175">
+        <v>9118</v>
+      </c>
+      <c r="D175">
+        <v>9118</v>
+      </c>
+      <c r="E175">
+        <v>9118</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C176">
+        <v>13135</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D177">
+        <v>13135</v>
+      </c>
+      <c r="E177">
+        <v>13135</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C178">
+        <v>8951</v>
+      </c>
+      <c r="E178">
+        <v>8951</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D179">
+        <v>8951</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C180">
+        <v>17247</v>
+      </c>
+      <c r="D180">
+        <v>17247</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E181">
+        <v>17247</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C182">
+        <v>6937</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D183">
+        <v>6937</v>
+      </c>
+      <c r="E183">
+        <v>6937</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C184">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D185">
+        <v>3161</v>
+      </c>
+      <c r="E185">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C186">
+        <v>716.20000000018626</v>
+      </c>
+      <c r="D186">
+        <v>4395.2000000001863</v>
+      </c>
+      <c r="E186">
+        <v>4395.2000000001863</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C187">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D188">
+        <v>12338</v>
+      </c>
+      <c r="E188">
+        <v>12338</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C189">
+        <v>12338</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D190">
+        <v>16394</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C191">
+        <v>16394</v>
+      </c>
+      <c r="E191">
+        <v>16394</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C192">
+        <v>17006</v>
+      </c>
+      <c r="D192">
+        <v>17006</v>
+      </c>
+      <c r="E192">
+        <v>17006</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E193">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C194">
+        <v>5812</v>
+      </c>
+      <c r="D194">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C195">
+        <v>22005</v>
+      </c>
+      <c r="D195">
+        <v>22005</v>
+      </c>
+      <c r="E195">
+        <v>22005</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D196">
+        <v>12633</v>
+      </c>
+      <c r="E196">
+        <v>12633</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C197">
+        <v>12633</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D198">
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C199">
+        <v>9880</v>
+      </c>
+      <c r="E199">
+        <v>9880</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E200">
+        <v>14542</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C201">
+        <v>14542</v>
+      </c>
+      <c r="D201">
+        <v>14542</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C202">
+        <v>10710</v>
+      </c>
+      <c r="D202">
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E203">
+        <v>10710</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C204">
+        <v>26916</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D205">
+        <v>26916</v>
+      </c>
+      <c r="E205">
+        <v>26916</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C206">
+        <v>13240</v>
+      </c>
+      <c r="D206">
+        <v>13240</v>
+      </c>
+      <c r="E206">
+        <v>13240</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C207">
+        <v>8641</v>
+      </c>
+      <c r="D207">
+        <v>8641</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E208">
+        <v>8641</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C209">
+        <v>16462</v>
+      </c>
+      <c r="E209">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D210">
+        <v>16462</v>
+      </c>
+      <c r="E210">
+        <v>11122</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C211">
+        <v>7330</v>
+      </c>
+      <c r="D211">
+        <v>7330</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E212">
+        <v>7330</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C213">
+        <v>14295</v>
+      </c>
+      <c r="D213">
+        <v>14295</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E214">
+        <v>14295</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C215">
+        <v>7260</v>
+      </c>
+      <c r="D215">
+        <v>7260</v>
+      </c>
+      <c r="E215">
+        <v>7260</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C216">
+        <v>8537</v>
+      </c>
+      <c r="D216">
+        <v>8537</v>
+      </c>
+      <c r="E216">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C217">
+        <v>8319</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D218">
+        <v>8319</v>
+      </c>
+      <c r="E218">
+        <v>8319</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C219">
+        <v>11166</v>
+      </c>
+      <c r="D219">
+        <v>11166</v>
+      </c>
+      <c r="E219">
+        <v>11166</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D220">
+        <v>10406</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C221">
+        <v>10406</v>
+      </c>
+      <c r="E221">
+        <v>10406</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C222">
+        <v>8226</v>
+      </c>
+      <c r="D222">
+        <v>8226</v>
+      </c>
+      <c r="E222">
+        <v>8226</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C223">
+        <v>9322</v>
+      </c>
+      <c r="D223">
+        <v>9322</v>
+      </c>
+      <c r="E223">
+        <v>9322</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
